--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3036765.404385348</v>
+        <v>3034388.777437982</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12383593.48435851</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,13 +665,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -710,7 +710,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>105.2636416850876</v>
       </c>
       <c r="Y2" t="n">
-        <v>261.9662669739525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>3.699540740983405</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>15.52257672202789</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>70.332529292434</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>191.1874525866101</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>79.41653965146556</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>39.45885325319734</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1151,7 +1151,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>70.90462188432743</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>38.5462532577372</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22.71303679942841</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>115.5971804138457</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -1348,16 +1348,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710067</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1534,7 +1534,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>45.36631724422193</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
     <row r="14">
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>159.2661870898837</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,13 +1819,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2011,13 +2011,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>41.02686156550228</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.01576915440816</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,7 +2251,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>41.02686156550273</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,10 +2488,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>41.02686156550273</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>42.14967908986381</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>53.11937003877918</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>108.3764982651495</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2950,16 +2950,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D31" t="n">
-        <v>56.49518623012958</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3187,19 +3187,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>10.63412424768257</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>161.5330709997918</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>125.2851635392057</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>56.49518623012958</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,19 +3904,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3955,10 +3955,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>160.0173565357453</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972916</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>230.4433519268051</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1588.383781964454</v>
+        <v>798.5551253258054</v>
       </c>
       <c r="C2" t="n">
-        <v>1588.383781964454</v>
+        <v>798.5551253258054</v>
       </c>
       <c r="D2" t="n">
-        <v>1230.118083357703</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="E2" t="n">
-        <v>844.329830759459</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G2" t="n">
         <v>421.6795797345444</v>
@@ -4325,7 +4325,7 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926625</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190805</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1852.996172847234</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1852.996172847234</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1852.996172847234</v>
+        <v>1185.154965389927</v>
       </c>
       <c r="Y2" t="n">
-        <v>1588.383781964454</v>
+        <v>1185.154965389927</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100997</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>1352.031492328576</v>
       </c>
       <c r="N3" t="n">
-        <v>1683.044957866265</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>2015.115393042426</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>641.9376744406312</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C4" t="n">
-        <v>473.0014915127243</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>473.0014915127243</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>325.0883979303312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>325.0883979303312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.23396574994</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1048.115628253778</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V4" t="n">
-        <v>1048.115628253778</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="W4" t="n">
-        <v>1044.378718414401</v>
+        <v>638.3033838959707</v>
       </c>
       <c r="X4" t="n">
-        <v>1044.378718414401</v>
+        <v>622.6240134696799</v>
       </c>
       <c r="Y4" t="n">
-        <v>823.5861392708709</v>
+        <v>401.8314343261497</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4541,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1234.787393074838</v>
+        <v>797.0848490996759</v>
       </c>
       <c r="C5" t="n">
-        <v>1234.787393074838</v>
+        <v>428.1223321592641</v>
       </c>
       <c r="D5" t="n">
-        <v>1163.744434193592</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="E5" t="n">
-        <v>777.9561815953474</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F5" t="n">
-        <v>366.9702768057398</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872908</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
         <v>2542.25058172385</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2244.521481950252</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664335</v>
+        <v>2244.521481950252</v>
       </c>
       <c r="V5" t="n">
-        <v>1977.695380320764</v>
+        <v>1913.458594606682</v>
       </c>
       <c r="W5" t="n">
-        <v>1624.92672505065</v>
+        <v>1560.689939336567</v>
       </c>
       <c r="X5" t="n">
-        <v>1624.92672505065</v>
+        <v>1187.224181075488</v>
       </c>
       <c r="Y5" t="n">
-        <v>1234.787393074838</v>
+        <v>797.0848490996759</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>932.4978103100997</v>
+        <v>932.4978103100999</v>
       </c>
       <c r="M6" t="n">
-        <v>1480.485115687205</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O6" t="n">
         <v>2199.840679460312</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,49 +4699,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51.2467865680031</v>
+        <v>196.9593607670919</v>
       </c>
       <c r="C7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="D7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="E7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269232</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U7" t="n">
-        <v>1124.34930177307</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V7" t="n">
-        <v>869.6648135671834</v>
+        <v>896.0145465323095</v>
       </c>
       <c r="W7" t="n">
-        <v>580.2476435302228</v>
+        <v>606.597376495349</v>
       </c>
       <c r="X7" t="n">
-        <v>352.2580926322055</v>
+        <v>378.6078255973316</v>
       </c>
       <c r="Y7" t="n">
-        <v>131.4655134886754</v>
+        <v>378.6078255973316</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>809.2519436594666</v>
+        <v>1553.305894864461</v>
       </c>
       <c r="C8" t="n">
-        <v>440.2894267190549</v>
+        <v>1184.34337792405</v>
       </c>
       <c r="D8" t="n">
-        <v>440.2894267190549</v>
+        <v>826.0776793172992</v>
       </c>
       <c r="E8" t="n">
         <v>440.2894267190549</v>
@@ -4799,55 +4799,55 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2490.718498213967</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2490.718498213967</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664335</v>
+        <v>2237.137437478146</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.695380320764</v>
+        <v>1906.074550134575</v>
       </c>
       <c r="W8" t="n">
-        <v>1624.92672505065</v>
+        <v>1553.305894864461</v>
       </c>
       <c r="X8" t="n">
-        <v>1585.9911156994</v>
+        <v>1553.305894864461</v>
       </c>
       <c r="Y8" t="n">
-        <v>1195.851783723588</v>
+        <v>1553.305894864461</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L9" t="n">
-        <v>932.4978103100997</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M9" t="n">
-        <v>1295.75982926932</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N9" t="n">
         <v>1867.77024428415</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>770.8338829770711</v>
+        <v>168.0116152688574</v>
       </c>
       <c r="C10" t="n">
-        <v>770.8338829770711</v>
+        <v>168.0116152688574</v>
       </c>
       <c r="D10" t="n">
-        <v>620.7172435647353</v>
+        <v>168.0116152688574</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>168.0116152688574</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>168.0116152688574</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590079</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1310.884232784815</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1021.765895288652</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V10" t="n">
-        <v>1021.765895288652</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W10" t="n">
-        <v>1021.765895288652</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="X10" t="n">
-        <v>793.7763443906351</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="Y10" t="n">
-        <v>793.7763443906351</v>
+        <v>349.6600800990971</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5033,10 +5033,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5048,7 +5048,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5066,25 +5066,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>789.7592298206043</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C13" t="n">
-        <v>620.8230468926974</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D13" t="n">
-        <v>470.7064074803617</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E13" t="n">
         <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>971.4076946508441</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
     <row r="14">
@@ -5273,31 +5273,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5318,7 +5318,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5358,19 +5358,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>1671.859558793925</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2223.769289033212</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
         <v>2283.159972732779</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1092.345997432834</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>923.4098145049275</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>773.2931750925917</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>625.3800815101986</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>478.4901340122882</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5467,19 +5467,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.776592304621</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.787041406604</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.994462263074</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5738,28 +5738,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355936</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1026.887310050512</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>231.7628415621006</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5981,46 +5981,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239597</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>710.248605371872</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6242,34 +6242,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L27" t="n">
-        <v>590.9096564684978</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M27" t="n">
-        <v>913.2907898186995</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373306</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612593</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>916.3099000622266</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C28" t="n">
-        <v>747.3737171343197</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6458,7 +6458,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111701</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2598873597751</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>448.1846595309957</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>943.5102657467545</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M30" t="n">
-        <v>1540.888753373306</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373306</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>527.7722521572603</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>470.7064074803617</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6689,19 +6689,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>1671.859558793925</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>789.7592298206043</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C34" t="n">
-        <v>620.8230468926974</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D34" t="n">
-        <v>470.7064074803617</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E34" t="n">
-        <v>322.7933138979686</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>175.9033664000582</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
         <v>175.9033664000582</v>
@@ -6880,28 +6880,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2436.221543936137</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2253.366709591041</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1420.189824692392</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X34" t="n">
-        <v>1192.200273794374</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y34" t="n">
-        <v>971.4076946508441</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="35">
@@ -6911,46 +6911,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397185</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>924.8344286397185</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1552.432392194325</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O36" t="n">
-        <v>2104.342122433613</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2546.729326731942</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000582</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,10 +7184,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2223.769289033212</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>696.7084350851671</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>527.7722521572603</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>470.7064074803617</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>322.7933138979686</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,19 +7400,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>671.2000270096656</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1268.578514636218</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190824</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>789.7592298206043</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>620.8230468926974</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>470.7064074803617</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>322.7933138979686</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000582</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1420.189824692392</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>1192.200273794374</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>971.4076946508441</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,16 +7658,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>789.7592298206043</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>620.8230468926974</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>470.7064074803617</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>322.7933138979686</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>175.9033664000582</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,31 +8055,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>129.7511347056862</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>162.0073097921339</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8301,13 +8301,13 @@
         <v>342.9044714621886</v>
       </c>
       <c r="M6" t="n">
-        <v>186.5911984019044</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>186.5911984019039</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>342.9044714621886</v>
+        <v>138.9393975111051</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>186.5911984019045</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>-2.664766248652818e-14</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>-9.092207747706317e-13</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>206.7713260796061</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>44.73700564187206</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>6.257951202385129</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23899,13 +23899,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>139.9994244361423</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.693886234629</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>28.95742156328143</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>139.9994244361419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,10 +24376,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.9994244361419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>183.5599762991733</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,22 +24598,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>126.7126101431581</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>40.23897475306285</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,16 +24838,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D31" t="n">
-        <v>92.12028678808278</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -24856,7 +24856,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25075,19 +25075,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>55.74112246243909</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>124.9899273367992</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,16 +25315,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>92.12028678808259</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>43.26526345294985</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>92.12028678808278</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,10 +25843,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>92.12028678808275</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,10 +26074,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>55.74112246243902</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>733141.3233361412</v>
+        <v>733141.3233361411</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>733141.3233361411</v>
+        <v>733141.323336141</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>733141.3233361411</v>
+        <v>733141.323336141</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>733141.3233361411</v>
+        <v>733141.323336141</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>733141.3233361411</v>
+        <v>733141.323336141</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>733141.3233361411</v>
+        <v>733141.3233361408</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>733141.3233361411</v>
+        <v>733141.323336141</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>733141.3233361411</v>
+        <v>733141.323336141</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>697885.5043846407</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="F2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="G2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="H2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="I2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="F2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="G2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="H2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="K2" t="n">
         <v>686074.6097365059</v>
       </c>
-      <c r="J2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="K2" t="n">
-        <v>686074.6097365058</v>
-      </c>
       <c r="L2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="M2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="N2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="O2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="P2" t="n">
         <v>686074.6097365058</v>
-      </c>
-      <c r="O2" t="n">
-        <v>686074.609736506</v>
-      </c>
-      <c r="P2" t="n">
-        <v>686074.6097365057</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245456</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289265</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,40 +26415,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
+        <v>7507.368461719706</v>
+      </c>
+      <c r="F4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="F4" t="n">
-        <v>7507.368461719698</v>
-      </c>
       <c r="G4" t="n">
-        <v>7507.368461719651</v>
+        <v>7507.36846171968</v>
       </c>
       <c r="H4" t="n">
+        <v>7507.368461719667</v>
+      </c>
+      <c r="I4" t="n">
         <v>7507.36846171964</v>
       </c>
-      <c r="I4" t="n">
-        <v>7507.368461719649</v>
-      </c>
       <c r="J4" t="n">
-        <v>7507.368461719643</v>
+        <v>7507.36846171965</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719669</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.36846171968</v>
+        <v>7507.368461719677</v>
       </c>
       <c r="N4" t="n">
         <v>7507.36846171969</v>
@@ -26470,10 +26470,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-642917.9151778677</v>
       </c>
       <c r="C6" t="n">
+        <v>471833.8683980514</v>
+      </c>
+      <c r="D6" t="n">
         <v>471833.8683980518</v>
       </c>
-      <c r="D6" t="n">
-        <v>471833.8683980517</v>
-      </c>
       <c r="E6" t="n">
-        <v>69959.26982633294</v>
+        <v>69924.53190089767</v>
       </c>
       <c r="F6" t="n">
-        <v>577444.7114508789</v>
+        <v>577409.9735254431</v>
       </c>
       <c r="G6" t="n">
-        <v>577444.711450879</v>
+        <v>577409.9735254431</v>
       </c>
       <c r="H6" t="n">
-        <v>577444.7114508789</v>
+        <v>577409.9735254433</v>
       </c>
       <c r="I6" t="n">
-        <v>577444.7114508792</v>
+        <v>577409.9735254432</v>
       </c>
       <c r="J6" t="n">
-        <v>409839.5336408964</v>
+        <v>409804.7957154606</v>
       </c>
       <c r="K6" t="n">
-        <v>577444.711450879</v>
+        <v>577409.9735254435</v>
       </c>
       <c r="L6" t="n">
-        <v>577444.711450879</v>
+        <v>577409.9735254435</v>
       </c>
       <c r="M6" t="n">
-        <v>444837.4177219521</v>
+        <v>444802.6797965167</v>
       </c>
       <c r="N6" t="n">
-        <v>577444.711450879</v>
+        <v>577409.9735254435</v>
       </c>
       <c r="O6" t="n">
-        <v>577444.7114508792</v>
+        <v>577409.9735254435</v>
       </c>
       <c r="P6" t="n">
-        <v>577444.7114508789</v>
+        <v>577409.9735254433</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26808,10 +26808,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26960,13 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,10 +26975,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,13 +27385,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>264.4674589933815</v>
       </c>
       <c r="Y2" t="n">
-        <v>124.271671682101</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27543,19 +27543,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,10 +27597,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>282.8234575956076</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>210.1870786670092</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>284.350512328249</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>15.47073239362365</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100.4154405304717</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>127.7879678454305</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27789,10 +27789,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,10 +27822,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>52.54759351446693</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>331.1848474207318</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>157.1189433825089</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>50.70941963095849</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,34 +31835,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>422.1299181110993</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32078,22 +32078,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>402.2342772868842</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>193.964997009853</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,7 +32324,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>426.9501404413636</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,7 +32333,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>687.544841654958</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,13 +32786,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>422.1299181110988</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
@@ -32804,10 +32804,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33020,7 +33020,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33032,19 +33032,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>467.7715423565655</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>681.5735157229393</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33178,10 +33178,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817577</v>
@@ -33257,13 +33257,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>145.7021085929658</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
@@ -33272,16 +33272,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>188.4731159523453</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33494,28 +33494,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>332.1692388321073</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.5996128485291</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>550.2163373881174</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>152.0754244981388</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,37 +33974,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>193.964997009853</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34129,34 +34129,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>568.8264345569165</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>189.0011860882997</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>520.9482342985601</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>411.6868389156661</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M6" t="n">
-        <v>553.5225306839449</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>522.015880398027</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>640.5848321000387</v>
+        <v>436.6197581489553</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>577.7882979947784</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>283.5755383312251</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35662,7 +35662,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
         <v>371.5675334924728</v>
@@ -35726,22 +35726,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>263.67989750701</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>59.99058959552271</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35881,7 +35881,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,7 +35972,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>295.6084283580303</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,7 +35981,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>556.2031295716247</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36367,7 +36367,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O23" t="n">
         <v>696.4886512243162</v>
@@ -36434,13 +36434,13 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>283.5755383312246</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36452,10 +36452,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789214</v>
@@ -36610,7 +36610,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924729</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36680,19 +36680,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>325.6375084345472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>550.231803639606</v>
       </c>
       <c r="O27" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789214</v>
@@ -36826,10 +36826,10 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.4543240367771</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>18.86448192629906</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
@@ -36920,16 +36920,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>45.87687150790087</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789214</v>
@@ -37142,28 +37142,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>189.5729943876629</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625076</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>416.2419299737871</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>6.39592053417488</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>59.99058959552271</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>430.2720547770423</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>57.65947400496642</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
